--- a/biology/Botanique/Tillandsia_sprengeliana/Tillandsia_sprengeliana.xlsx
+++ b/biology/Botanique/Tillandsia_sprengeliana/Tillandsia_sprengeliana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia sprengeliana Klotzsch ex Mez est une plante de la famille des Bromeliaceae, originaire du Brésil.
 L'épithète sprengeliana est une dédicace au botaniste C.P.J. Sprengel (1766-1833).
@@ -513,12 +525,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia sprengeliana Klotzsch ex Mez, in Mart., Fl. Bras. 3(3): 596, n° 17 (1894)
-Diagnose originale[1] :
+Diagnose originale :
 « TILLANDSIA SPRENGELIANA Kl. foliis dense rosulatis utriculum haud efformantibus, plerisque unilateraliter curvatis subunciformibus, perlonge acutis, lepidibus maximis densissime lepidotis; inflorescentia scapo brevi stipitata pauciflora, simplicissima quaquaverse spicata, folia superante; bracteis amplis sepala solemniter superantibus, late ovalibus, apice mucrone imposito rotundatis, glabris; sepalis aequaliter basi minute connatis, glabris; petalis lamina anguste ovali, subpatenti praeditis; staminibus quam petala brevioribus, antheris obtusis; stylo staminibus breviore. »
-Type : décrit[1] à partir d'un spécimen de l'herbier de Berlin (Holotypus B 10 0296322), spécimen sans indication de collecteur ni de lieu de collecte.
+Type : décrit à partir d'un spécimen de l'herbier de Berlin (Holotypus B 10 0296322), spécimen sans indication de collecteur ni de lieu de collecte.
 </t>
         </is>
       </c>
@@ -547,12 +561,14 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Tillandsia sprengeliana Klotzsch ex Baker (nom. nud.)[1],[2]
-Anoplophytum sprengelianum Beer (nom. nud.)[1],[2]
-Tillandsia purpurea sensu Spreng. non Ruiz &amp; Pav[1],[2].
-Tillandsia brachyphylla Baker pro parte[1],[2]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tillandsia sprengeliana Klotzsch ex Baker (nom. nud.),
+Anoplophytum sprengelianum Beer (nom. nud.),
+Tillandsia purpurea sensu Spreng. non Ruiz &amp; Pav,.
+Tillandsia brachyphylla Baker pro parte,</t>
         </is>
       </c>
     </row>
@@ -581,6 +597,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -606,11 +624,13 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante vivace herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; saxicole[1], épiphyte[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Typologie : plante vivace herbacée en rosette acaule monocarpique vivace par ses rejets latéraux ; saxicole, épiphyte.
 Habitat : ?
-Altitude : 0-300 m[2].</t>
+Altitude : 0-300 m.</t>
         </is>
       </c>
     </row>
@@ -638,11 +658,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique du sud :
  Brésil
-Rio de Janeiro[3]</t>
+Rio de Janeiro</t>
         </is>
       </c>
     </row>
@@ -670,9 +692,11 @@
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia sprengeliana est de culture facile[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia sprengeliana est de culture facile.
 Culture sans substrat comme toutes les Tillandsia « aériennes ».
 </t>
         </is>
